--- a/経済イベントカード　提出用.xlsx
+++ b/経済イベントカード　提出用.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="90" documentId="8_{A8DA2AAD-F641-4C5C-A561-8A0459C91D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{301B199B-8D3C-4763-BE00-B6F0E3469CAE}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="0" windowWidth="15700" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -235,6 +235,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -526,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection sqref="A1:M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -585,7 +589,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <f>B2/$B$24</f>
+        <f t="shared" ref="C2:C23" si="0">B2/$B$24</f>
         <v>0.08</v>
       </c>
       <c r="D2" t="s">
@@ -627,7 +631,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <f>B3/$B$24</f>
+        <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
       <c r="D3">
@@ -669,7 +673,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <f>B4/$B$24</f>
+        <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
       <c r="D4" t="s">
@@ -711,7 +715,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <f>B5/$B$24</f>
+        <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
       <c r="D5" t="s">
@@ -753,7 +757,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <f>B6/$B$24</f>
+        <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
       <c r="D6">
@@ -795,7 +799,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <f>B7/$B$24</f>
+        <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
       <c r="D7" t="s">
@@ -837,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <f>B8/$B$24</f>
+        <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
       <c r="D8" t="s">
@@ -879,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <f>B9/$B$24</f>
+        <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
       <c r="D9" t="s">
@@ -921,7 +925,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <f>B10/$B$24</f>
+        <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
       <c r="D10" t="s">
@@ -963,7 +967,7 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <f>B11/$B$24</f>
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
       <c r="D11" t="s">
@@ -1005,7 +1009,7 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <f>B12/$B$24</f>
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
       <c r="D12">
@@ -1047,7 +1051,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <f>B13/$B$24</f>
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
       <c r="D13">
@@ -1089,7 +1093,7 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <f>B14/$B$24</f>
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
       <c r="D14">
@@ -1131,7 +1135,7 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <f>B15/$B$24</f>
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
       <c r="D15">
@@ -1170,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <f>B16/$B$24</f>
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
       <c r="D16">
@@ -1212,7 +1216,7 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <f>B17/$B$24</f>
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
       <c r="D17">
@@ -1254,7 +1258,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <f>B18/$B$24</f>
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
       <c r="D18" t="s">
@@ -1296,7 +1300,7 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <f>B19/$B$24</f>
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
       <c r="D19" t="s">
@@ -1338,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <f>B20/$B$24</f>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="D20">
@@ -1380,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <f>B21/$B$24</f>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="D21">
@@ -1422,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <f>B22/$B$24</f>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="D22" t="s">
@@ -1464,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <f>B23/$B$24</f>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="D23" t="s">
@@ -1508,39 +1512,39 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24:M24" si="0">SUMPRODUCT($C$2:$C$23,E2:E23)</f>
+        <f t="shared" ref="E24:M24" si="1">SUMPRODUCT($C$2:$C$23,E2:E23)</f>
         <v>0</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
